--- a/data/shedding/sheddingDurationCDF.xlsx
+++ b/data/shedding/sheddingDurationCDF.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfamulare\Dropbox (IDM)\VaccineNetworkTransmissionPaper\data\shedding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfamulare\Dropbox (IDM)\VaccineNetworkTransmissionPaper\revisedSupplement\data\shedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Shed_dur_dist" sheetId="1" r:id="rId1"/>
@@ -1346,27 +1346,27 @@
   <dimension ref="A1:AW478"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV156" sqref="AV156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="4" customWidth="1"/>
-    <col min="3" max="37" width="6.7109375" style="4" customWidth="1"/>
-    <col min="38" max="38" width="10.28515625" style="2" customWidth="1"/>
-    <col min="39" max="39" width="10.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4" customWidth="1"/>
+    <col min="3" max="37" width="6.6640625" style="4" customWidth="1"/>
+    <col min="38" max="38" width="10.33203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="10.33203125" style="3" customWidth="1"/>
     <col min="40" max="40" width="51" style="2" customWidth="1"/>
-    <col min="41" max="41" width="16.28515625" style="2" customWidth="1"/>
-    <col min="42" max="42" width="9.140625" style="2"/>
+    <col min="41" max="41" width="16.33203125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="9.109375" style="2"/>
     <col min="43" max="43" width="13" style="2" customWidth="1"/>
-    <col min="44" max="44" width="26.85546875" style="2" customWidth="1"/>
-    <col min="45" max="49" width="9.140625" style="17"/>
-    <col min="50" max="16384" width="9.140625" style="1"/>
+    <col min="44" max="44" width="26.88671875" style="2" customWidth="1"/>
+    <col min="45" max="49" width="9.109375" style="17"/>
+    <col min="50" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="9" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="9" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>139</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>110</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>80</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>69</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>31</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>30</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>42</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>10</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>12</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>15</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>15</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>16</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>7</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>7</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>3</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>7</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>6</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>6</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>7</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>5</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>5</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>10</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>5</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>15</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>12</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>21</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>18</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>23</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>3</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>21</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>5</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>8</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>10</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>16</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>21</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>15</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>12</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>19</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>24</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>17</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>22</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>18</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>16</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>9</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>33</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>3</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>7</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>3</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>3</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>15</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>28</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>39</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>16</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>10</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>7</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>24</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>17</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>8</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>76</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>91</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>62</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>5</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>93</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>30</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>39</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>70</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>5</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>93</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>30</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>39</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>70</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>52</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>51</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>30</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>37</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>36</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>25</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>15</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>255</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>263</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>222</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>65</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>24</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>66</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>54</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>40</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>40</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>41</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>10</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>17</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>29</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>17</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>17</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>53</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>45</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>45</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>7</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>20</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>28</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>47</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>44</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>17</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>54</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>44</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>14</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>79</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>24</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>49</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>37</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>22</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>14</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>6</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>62</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>66</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>62</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>59</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>61</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>52</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>132</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>45</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>125</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>11</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>62</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>45</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>11</v>
       </c>
@@ -17130,7 +17130,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>4</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>10</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>3</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>5</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>3</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>42</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>21</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>14</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>13</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>22</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>5</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>3</v>
       </c>
@@ -18727,7 +18727,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>12</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>9</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>10</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>5</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>10</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>83</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>7</v>
       </c>
@@ -19795,7 +19795,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>13</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>86</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>20</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>3</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>23</v>
       </c>
@@ -20341,7 +20341,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>42</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>4</v>
       </c>
@@ -20507,7 +20507,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>32</v>
       </c>
@@ -20593,7 +20593,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>28</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>7</v>
       </c>
@@ -20759,7 +20759,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
         <v>21</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
         <v>54</v>
       </c>
@@ -20947,7 +20947,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
         <v>74</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
         <v>18</v>
       </c>
@@ -21139,7 +21139,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
         <v>17</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
         <v>11</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
         <v>10</v>
       </c>
@@ -21409,7 +21409,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
         <v>12</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
         <v>2</v>
       </c>
@@ -21589,7 +21589,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
         <v>13</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
         <v>13</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
         <v>8</v>
       </c>
@@ -21859,7 +21859,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
         <v>173</v>
       </c>
@@ -21948,7 +21948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
         <v>181</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
         <v>177</v>
       </c>
@@ -22126,7 +22126,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
         <v>197</v>
       </c>
@@ -22215,7 +22215,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
         <v>193</v>
       </c>
@@ -22304,7 +22304,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
         <v>85</v>
       </c>
@@ -22393,7 +22393,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
         <v>187</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
         <v>189</v>
       </c>
@@ -22571,76 +22571,76 @@
         <v>150</v>
       </c>
     </row>
-    <row r="246" spans="40:40" x14ac:dyDescent="0.35">
+    <row r="246" spans="40:40" x14ac:dyDescent="0.4">
       <c r="AN246" s="7"/>
     </row>
-    <row r="247" spans="40:40" x14ac:dyDescent="0.35">
+    <row r="247" spans="40:40" x14ac:dyDescent="0.4">
       <c r="AN247" s="7"/>
     </row>
-    <row r="248" spans="40:40" x14ac:dyDescent="0.35">
+    <row r="248" spans="40:40" x14ac:dyDescent="0.4">
       <c r="AN248" s="7"/>
     </row>
-    <row r="249" spans="40:40" x14ac:dyDescent="0.35">
+    <row r="249" spans="40:40" x14ac:dyDescent="0.4">
       <c r="AN249" s="7"/>
     </row>
-    <row r="250" spans="40:40" x14ac:dyDescent="0.35">
+    <row r="250" spans="40:40" x14ac:dyDescent="0.4">
       <c r="AN250" s="7"/>
     </row>
-    <row r="251" spans="40:40" x14ac:dyDescent="0.35">
+    <row r="251" spans="40:40" x14ac:dyDescent="0.4">
       <c r="AN251" s="7"/>
     </row>
-    <row r="461" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="461" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM461" s="6"/>
     </row>
-    <row r="462" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="462" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM462" s="6"/>
     </row>
-    <row r="463" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="463" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM463" s="6"/>
     </row>
-    <row r="464" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="464" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM464" s="6"/>
     </row>
-    <row r="465" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="465" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM465" s="6"/>
     </row>
-    <row r="466" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="466" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM466" s="6"/>
     </row>
-    <row r="467" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="467" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM467" s="6"/>
     </row>
-    <row r="468" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="468" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM468" s="6"/>
     </row>
-    <row r="469" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="469" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM469" s="6"/>
     </row>
-    <row r="470" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="470" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM470" s="6"/>
     </row>
-    <row r="471" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="471" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM471" s="6"/>
     </row>
-    <row r="472" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="472" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM472" s="6"/>
     </row>
-    <row r="473" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="473" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM473" s="6"/>
     </row>
-    <row r="474" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="474" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM474" s="6"/>
     </row>
-    <row r="475" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="475" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM475" s="6"/>
     </row>
-    <row r="476" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="476" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM476" s="6"/>
     </row>
-    <row r="477" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="477" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM477" s="6"/>
     </row>
-    <row r="478" spans="39:39" x14ac:dyDescent="0.35">
+    <row r="478" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM478" s="6"/>
     </row>
   </sheetData>
